--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trentconley/Desktop/Work/Discord-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148245B6-20F4-084A-8740-528B78986077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2893105-B6E0-6C44-91B3-7E40E4137165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAE3276D-B296-5145-A0E6-066B62DA037C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Message</t>
   </si>
@@ -129,13 +129,64 @@
   </si>
   <si>
     <t>Please paste your transaction id and wallet id below</t>
+  </si>
+  <si>
+    <t>I saw messege in chat, I have completed testnet of 5 days but no role no nft received.</t>
+  </si>
+  <si>
+    <t>Have you change your discord name since you've completed the testnet tasks? What is the full ETH address?</t>
+  </si>
+  <si>
+    <t>the query is I have completed that five days task. but didn't get nft or role</t>
+  </si>
+  <si>
+    <t>Please provide screenshots showing that you completed the steps. Also, make sure you have minted the NFT. NFT drops whitelist your address, but do not automatically deposit it.</t>
+  </si>
+  <si>
+    <t>i can't claim my pioneer nft but i have claimed. my address 0x7fB87Ff912b81A9211fb4cca2445643702bf5D33</t>
+  </si>
+  <si>
+    <t>Could you please clarify ... You can't claim but have claimed?</t>
+  </si>
+  <si>
+    <t>i can't claim role hahah. and i can't mint them. so that's why am not eligble</t>
+  </si>
+  <si>
+    <t>Without a tx id it's hard to know why these are failing, could you please provide that?</t>
+  </si>
+  <si>
+    <t>Dont get points. 0xBb41dd49254E8B9d631B835062392a460081734D.</t>
+  </si>
+  <si>
+    <t>Hello. If you have deposited recently, please refresh and check again later. More info regarding points can be found here. https://docs.primeprotocol.xyz/navigating-prime/prime-early-adopter-program</t>
+  </si>
+  <si>
+    <t>Hello. I noticed that when you repay the loan and withdraw the deposit, if you use the button 100%, then the entire amount is not withdrawn, the account balance is left, which will have to repay again and of course pay for gas.</t>
+  </si>
+  <si>
+    <t>Thank you for the information; I'll tag the team on this.</t>
+  </si>
+  <si>
+    <t>0x9E3CeB09375f9d4922D6dc7Da3D006958298CDA8, id like to re-add my initial deposit - which was much more. really like how the P P team handled all this. im sure though you can understand my concerns about liquidity and rewards - i think you all will do great. lmk about the points</t>
+  </si>
+  <si>
+    <t>i deposit some glmr and dot, but I can't withdraw it. I found some errors in the execution of the contract, please help me to see if I can get my token back. my tx: 0xb6d674171cf570185a5ad3ddef47f853b71d4e923d139d0739d03c0bdc2fa319 0x0d54faeba552e9f5f0f4ad322800ed6f6539e4c4e74348171b09bfecb899831b</t>
+  </si>
+  <si>
+    <t>Thank you for providing the transaction. I have tagged the team and they will continue from here.</t>
+  </si>
+  <si>
+    <t>If I didn't get the daily connect posted yesterday before the zealy renewal time, doesn't this sprint count? After all, I'm shorted by 50xp for one daily connect, right?</t>
+  </si>
+  <si>
+    <t>If you can't complete this task. You won't get XP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,30 +197,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FFDCDDDE"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11.4"/>
-      <color rgb="FFDCDDDE"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <color rgb="FF0096CF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -194,14 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,7 +255,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -570,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F653C-8C28-2E41-92CF-BB2F31002CAC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,8 +677,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>2022</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -665,64 +688,150 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2034</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2038</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2109</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1975</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="3"/>
+      <c r="A11" s="2">
+        <v>1955</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1954</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1948</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1910</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1933</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1942</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1925</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trentconley/Desktop/Work/Discord-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2893105-B6E0-6C44-91B3-7E40E4137165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2AC05-3E40-8F4B-A2B7-372912EA1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAE3276D-B296-5145-A0E6-066B62DA037C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Message</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Yo, I have USDC in my wallet but I can't deposit them on Arbitrum because because they aren't detected by your app</t>
   </si>
   <si>
-    <t>Have you tried refreshing the app, disconnecting your wallet, and reconnecting it?</t>
-  </si>
-  <si>
     <t>Yes already done.</t>
   </si>
   <si>
@@ -179,14 +176,80 @@
     <t>If I didn't get the daily connect posted yesterday before the zealy renewal time, doesn't this sprint count? After all, I'm shorted by 50xp for one daily connect, right?</t>
   </si>
   <si>
-    <t>If you can't complete this task. You won't get XP</t>
+    <t>hello guys, i deposited 20k+ 4 $ but my prime points are still 0, is that normal?</t>
+  </si>
+  <si>
+    <t>Please refresh the app, disconnect your wallet, then reconnect it. If  you still cannot see points, please share screenshots and your wallet address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx was made 42 minutes ago. </t>
+  </si>
+  <si>
+    <t>tx was made 42 minutes ago. 0xBb41dd49254E8B9d631B835062392a460081734D</t>
+  </si>
+  <si>
+    <t>Thank you for providing your wallet address. Tagging the team.</t>
+  </si>
+  <si>
+    <t>Please provide your wallet address. Tagging the team.</t>
+  </si>
+  <si>
+    <t>If you didn't complete the task, you won't get XP.</t>
+  </si>
+  <si>
+    <t>As of now, I've been able to do two daily connections, right?</t>
+  </si>
+  <si>
+    <t>No. Daily connect will be restarted at 00:00 UTC daily. You can only do it once a day.</t>
+  </si>
+  <si>
+    <t>Please can you help check the wallet I registered</t>
+  </si>
+  <si>
+    <t>Tagging the team. Can you confirm the wallet address linked to his Discord profile please?</t>
+  </si>
+  <si>
+    <t>hii please can we do a dual zealy f.k.a crew3 community quest creation with OMNIA protocol ?</t>
+  </si>
+  <si>
+    <t>Im unable to claim my early galxe nft. Prime pioneer nft. All tasks has been verified except the last one . I have done all daily tasks (zealy's) testnet tasks new task 5 days</t>
+  </si>
+  <si>
+    <t>Make sure you participate in Testnet and take borrowed by February 28th. Or completed Testnet Academy tasks. Also, if you have recently joined the sprint, the results will be announced at the end of the month, after the sprint is completed. Top 80 participants in the MAY Sprint Leaderboard will be rewarded with Prime Super OG Discord Role! Top 200 participants in the MAY Sprint Leaderboard will secure whitelist spot for Prime Pioneer NFT mint.</t>
+  </si>
+  <si>
+    <t>I have already completed testnet academy tasks</t>
+  </si>
+  <si>
+    <t>Okay, I am tagging the team. Please provide screenshots of notifications from zealy about completed Testnet Academy tasks?</t>
+  </si>
+  <si>
+    <t>Hello admin, I've joined the testnet and submitted the wallet address before. But I can't verify the Prime Pioneer NFT on Galaxy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi there. You need use testnet before Feb 28th to get whitelisted for NFT. Please provide your wallet addresss you used during testnet so we can check. </t>
+  </si>
+  <si>
+    <t>Yesterday I have got pioneer NFT from galxe.com and have access on guild.xyz... but till now I haven't see pioneer here in discord</t>
+  </si>
+  <si>
+    <t>Please try to leave and re-enter the guild</t>
+  </si>
+  <si>
+    <t>Leave the guild and re-enter this doesn't mean I haven't any access to prime pioneer NFT anymore !</t>
+  </si>
+  <si>
+    <t>If you minted the NFT on the blockchain you'll have forever.</t>
+  </si>
+  <si>
+    <t>Don't leave the Discord, just leave and reenter the guild.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +259,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFDCDDDE"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.4"/>
       <color rgb="FFDCDDDE"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -221,10 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F653C-8C28-2E41-92CF-BB2F31002CAC}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -668,13 +738,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -682,10 +752,10 @@
         <v>2022</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,16 +763,16 @@
         <v>2034</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -710,10 +780,10 @@
         <v>2038</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -721,10 +791,10 @@
         <v>2109</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -732,10 +802,10 @@
         <v>1975</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -743,10 +813,10 @@
         <v>1955</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,10 +824,10 @@
         <v>1954</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -765,16 +835,16 @@
         <v>1948</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,10 +852,10 @@
         <v>1910</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,10 +863,10 @@
         <v>1933</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -804,30 +874,143 @@
         <v>1942</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1986</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1925</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1892</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1892</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1915</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1907</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1906</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1884</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1831</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trentconley/Desktop/Work/Discord-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2AC05-3E40-8F4B-A2B7-372912EA1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591D259-8471-CA4F-A286-8BB9CF140CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAE3276D-B296-5145-A0E6-066B62DA037C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Message</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Thank you for the information; I'll tag the team on this.</t>
   </si>
   <si>
+    <t>synthetic</t>
+  </si>
+  <si>
     <t>0x9E3CeB09375f9d4922D6dc7Da3D006958298CDA8, id like to re-add my initial deposit - which was much more. really like how the P P team handled all this. im sure though you can understand my concerns about liquidity and rewards - i think you all will do great. lmk about the points</t>
   </si>
   <si>
@@ -239,10 +242,13 @@
     <t>Leave the guild and re-enter this doesn't mean I haven't any access to prime pioneer NFT anymore !</t>
   </si>
   <si>
-    <t>If you minted the NFT on the blockchain you'll have forever.</t>
-  </si>
-  <si>
-    <t>Don't leave the Discord, just leave and reenter the guild.</t>
+    <t>Nothing happened.... By the way I got access on guild 2days before but discord server not showing pioneer ... In this case you can't add my pioneer role in discord!</t>
+  </si>
+  <si>
+    <t>If you minted the NFT on the blockchain you'll have forever. Don't leave the Discord, just leave and reenter the guild.</t>
+  </si>
+  <si>
+    <t>Tagging the team. Please confirm the username by providing screenshot from guild.xyz.</t>
   </si>
 </sst>
 </file>
@@ -290,10 +296,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0F653C-8C28-2E41-92CF-BB2F31002CAC}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,7 +681,7 @@
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -690,8 +697,14 @@
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1980</v>
       </c>
@@ -702,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2012</v>
       </c>
@@ -733,12 +746,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -747,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
@@ -758,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2034</v>
       </c>
@@ -775,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2038</v>
       </c>
@@ -786,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2109</v>
       </c>
@@ -797,7 +810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1975</v>
       </c>
@@ -808,7 +821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1955</v>
       </c>
@@ -819,7 +832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1954</v>
       </c>
@@ -830,7 +843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1948</v>
       </c>
@@ -847,7 +860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1910</v>
       </c>
@@ -858,7 +871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1933</v>
       </c>
@@ -869,148 +882,154 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1942</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1986</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1925</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1892</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1892</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1915</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1907</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1906</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1884</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1831</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>64</v>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trentconley/Desktop/Work/Discord-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591D259-8471-CA4F-A286-8BB9CF140CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3699453C-C66E-404B-9822-A82D903208C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAE3276D-B296-5145-A0E6-066B62DA037C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Message</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Thank you for the information; I'll tag the team on this.</t>
-  </si>
-  <si>
-    <t>synthetic</t>
   </si>
   <si>
     <t>0x9E3CeB09375f9d4922D6dc7Da3D006958298CDA8, id like to re-add my initial deposit - which was much more. really like how the P P team handled all this. im sure though you can understand my concerns about liquidity and rewards - i think you all will do great. lmk about the points</t>
@@ -296,11 +293,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -673,363 +668,357 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1980</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2038</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1975</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1955</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1954</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1948</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1910</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1933</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1942</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1986</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1925</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1892</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1892</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2034</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2038</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>2109</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>1975</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1955</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>1954</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1948</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>1910</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>1933</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>1942</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1925</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1915</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>1892</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>1892</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>1915</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1907</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1907</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1906</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1906</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1884</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>1884</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1831</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>1831</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trentconley/Desktop/Work/Discord-Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3699453C-C66E-404B-9822-A82D903208C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEED39F-9639-204D-8856-107ED5103F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EAE3276D-B296-5145-A0E6-066B62DA037C}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Bot Response</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>Do you need to cross the chain? Why is it too late</t>
   </si>
@@ -668,32 +662,32 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -701,24 +695,24 @@
         <v>1980</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -726,30 +720,30 @@
         <v>2012</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -757,10 +751,10 @@
         <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -768,16 +762,16 @@
         <v>2034</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -785,10 +779,10 @@
         <v>2038</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -796,10 +790,10 @@
         <v>2109</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -807,10 +801,10 @@
         <v>1975</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -818,10 +812,10 @@
         <v>1955</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,10 +823,10 @@
         <v>1954</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -840,16 +834,16 @@
         <v>1948</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -857,10 +851,10 @@
         <v>1910</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -868,10 +862,10 @@
         <v>1933</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -879,7 +873,7 @@
         <v>1942</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -887,10 +881,10 @@
         <v>1986</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -898,16 +892,16 @@
         <v>1925</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -915,16 +909,16 @@
         <v>1892</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -932,16 +926,16 @@
         <v>1892</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -949,10 +943,10 @@
         <v>1915</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -960,10 +954,10 @@
         <v>1907</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -971,16 +965,16 @@
         <v>1906</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -988,10 +982,10 @@
         <v>1884</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -999,22 +993,22 @@
         <v>1831</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
